--- a/SLR_Infant Mortality.xlsx
+++ b/SLR_Infant Mortality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sannyye/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F5110A1-966A-D04D-B708-48EBE1234DBB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B22ABAA-5058-114B-9A62-B37804B3D230}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="940" windowWidth="23440" windowHeight="16120" activeTab="5" xr2:uid="{8ED7C4D8-DE18-DE4D-B916-807E6D394943}"/>
+    <workbookView xWindow="6300" yWindow="460" windowWidth="23440" windowHeight="16120" activeTab="5" xr2:uid="{8ED7C4D8-DE18-DE4D-B916-807E6D394943}"/>
   </bookViews>
   <sheets>
     <sheet name="teen birth rate" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="helthy food" sheetId="6" r:id="rId5"/>
     <sheet name="life expectancy" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="46">
   <si>
     <t>Infant Mortality</t>
   </si>
@@ -163,6 +163,18 @@
   <si>
     <t>Life Expectancy</t>
   </si>
+  <si>
+    <t>Slope</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>R_squared</t>
+  </si>
+  <si>
+    <t>Std_error</t>
+  </si>
 </sst>
 </file>
 
@@ -185,12 +197,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -205,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -213,6 +237,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7841,16 +7867,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7882,16 +7908,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7923,16 +7949,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7964,16 +7990,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8005,16 +8031,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8046,16 +8072,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8380,10 +8406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E54BB012-16AB-1C43-A87B-78D016EF43F6}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8393,7 +8419,7 @@
     <col min="3" max="3" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="34">
+    <row r="1" spans="1:6" ht="34">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -8404,7 +8430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17">
+    <row r="2" spans="1:6" ht="17">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -8415,7 +8441,7 @@
         <v>10.075566750629701</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17">
+    <row r="3" spans="1:6" ht="17">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -8425,8 +8451,15 @@
       <c r="C3" s="2">
         <v>5.6980056980056997</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="17">
+      <c r="E3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="4">
+        <f>SLOPE(C2:C35,B2:B35)</f>
+        <v>9.2739994340901272E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -8436,8 +8469,15 @@
       <c r="C4" s="2">
         <v>14.824797843665801</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="17">
+      <c r="E4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="4">
+        <f>INTERCEPT(C2:C35,B2:B35)</f>
+        <v>7.2390328573392448</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -8447,8 +8487,15 @@
       <c r="C5" s="2">
         <v>16.20029455081</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="17">
+      <c r="E5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="4">
+        <f>RSQ(C2:C35,B2:B35)</f>
+        <v>0.1106052146182394</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -8458,8 +8505,15 @@
       <c r="C6" s="2">
         <v>12.188044109112001</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="17">
+      <c r="E6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="4">
+        <f>STEYX(C2:C35,B2:B35)</f>
+        <v>4.2868344540827454</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -8470,7 +8524,7 @@
         <v>5.6657223796034</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17">
+    <row r="8" spans="1:6" ht="17">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -8481,7 +8535,7 @@
         <v>13.8888888888889</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17">
+    <row r="9" spans="1:6" ht="17">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -8492,7 +8546,7 @@
         <v>15.424164524421601</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="17">
+    <row r="10" spans="1:6" ht="17">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -8503,7 +8557,7 @@
         <v>5.1546391752577296</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="17">
+    <row r="11" spans="1:6" ht="17">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -8514,7 +8568,7 @@
         <v>8.3798882681564208</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17">
+    <row r="12" spans="1:6" ht="17">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
@@ -8525,7 +8579,7 @@
         <v>13.4048257372654</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17">
+    <row r="13" spans="1:6" ht="17">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
@@ -8536,7 +8590,7 @@
         <v>6.38977635782748</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="17">
+    <row r="14" spans="1:6" ht="17">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
@@ -8547,7 +8601,7 @@
         <v>8.9605734767025105</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="17">
+    <row r="15" spans="1:6" ht="17">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
@@ -8558,7 +8612,7 @@
         <v>15.5490767735666</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="17">
+    <row r="16" spans="1:6" ht="17">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
@@ -8786,10 +8840,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E91C845E-C958-CF4B-A277-D6C4D6814CC7}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="E3" sqref="E3:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8799,7 +8853,7 @@
     <col min="3" max="3" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="51">
+    <row r="1" spans="1:6" ht="51">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -8810,7 +8864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17">
+    <row r="2" spans="1:6" ht="17">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -8821,7 +8875,7 @@
         <v>10.075566750629701</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17">
+    <row r="3" spans="1:6" ht="17">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -8831,8 +8885,15 @@
       <c r="C3" s="2">
         <v>5.6980056980056997</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="17">
+      <c r="E3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="4">
+        <f>SLOPE(C2:C35,B2:B35)</f>
+        <v>-0.57129019602176179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -8842,8 +8903,15 @@
       <c r="C4" s="2">
         <v>14.824797843665801</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="17">
+      <c r="E4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="4">
+        <f>INTERCEPT(C2:C35,B2:B35)</f>
+        <v>59.191447589971887</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -8853,8 +8921,15 @@
       <c r="C5" s="2">
         <v>16.20029455081</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="17">
+      <c r="E5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="4">
+        <f>RSQ(C2:C35,B2:B35)</f>
+        <v>0.25819428899867791</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -8864,8 +8939,15 @@
       <c r="C6" s="2">
         <v>12.188044109112001</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="17">
+      <c r="E6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="4">
+        <f>STEYX(C2:C35,B2:B35)</f>
+        <v>3.9150247275041972</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -8876,7 +8958,7 @@
         <v>5.6657223796034</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17">
+    <row r="8" spans="1:6" ht="17">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -8887,7 +8969,7 @@
         <v>13.8888888888889</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17">
+    <row r="9" spans="1:6" ht="17">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -8898,7 +8980,7 @@
         <v>15.424164524421601</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="17">
+    <row r="10" spans="1:6" ht="17">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -8909,7 +8991,7 @@
         <v>5.1546391752577296</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="17">
+    <row r="11" spans="1:6" ht="17">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -8920,7 +9002,7 @@
         <v>8.3798882681564208</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17">
+    <row r="12" spans="1:6" ht="17">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
@@ -8931,7 +9013,7 @@
         <v>13.4048257372654</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17">
+    <row r="13" spans="1:6" ht="17">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
@@ -8942,7 +9024,7 @@
         <v>6.38977635782748</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="17">
+    <row r="14" spans="1:6" ht="17">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
@@ -8953,7 +9035,7 @@
         <v>8.9605734767025105</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="17">
+    <row r="15" spans="1:6" ht="17">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
@@ -8964,7 +9046,7 @@
         <v>15.5490767735666</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="17">
+    <row r="16" spans="1:6" ht="17">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
@@ -9192,10 +9274,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F685E5-E766-8842-9FE5-358CB176A3F3}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="E3" sqref="E3:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9205,7 +9287,7 @@
     <col min="3" max="3" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="68">
+    <row r="1" spans="1:6" ht="68">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -9216,7 +9298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17">
+    <row r="2" spans="1:6" ht="17">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -9227,7 +9309,7 @@
         <v>10.075566750629701</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17">
+    <row r="3" spans="1:6" ht="17">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -9237,8 +9319,15 @@
       <c r="C3" s="2">
         <v>5.6980056980056997</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="17">
+      <c r="E3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="4">
+        <f>SLOPE(C2:C35,B2:B35)</f>
+        <v>-0.45877360964948483</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -9248,8 +9337,15 @@
       <c r="C4" s="2">
         <v>14.824797843665801</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="17">
+      <c r="E4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="4">
+        <f>INTERCEPT(C2:C35,B2:B35)</f>
+        <v>50.219854523445363</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -9259,8 +9355,15 @@
       <c r="C5" s="2">
         <v>16.20029455081</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="17">
+      <c r="E5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="4">
+        <f>RSQ(C2:C35,B2:B35)</f>
+        <v>0.13242785361374063</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -9270,8 +9373,15 @@
       <c r="C6" s="2">
         <v>12.188044109112001</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="17">
+      <c r="E6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="4">
+        <f>STEYX(C2:C35,B2:B35)</f>
+        <v>4.2339158627119904</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -9282,7 +9392,7 @@
         <v>5.6657223796034</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17">
+    <row r="8" spans="1:6" ht="17">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -9293,7 +9403,7 @@
         <v>13.8888888888889</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17">
+    <row r="9" spans="1:6" ht="17">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -9304,7 +9414,7 @@
         <v>15.424164524421601</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="17">
+    <row r="10" spans="1:6" ht="17">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -9315,7 +9425,7 @@
         <v>5.1546391752577296</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="17">
+    <row r="11" spans="1:6" ht="17">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -9326,7 +9436,7 @@
         <v>8.3798882681564208</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17">
+    <row r="12" spans="1:6" ht="17">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
@@ -9337,7 +9447,7 @@
         <v>13.4048257372654</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17">
+    <row r="13" spans="1:6" ht="17">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
@@ -9348,7 +9458,7 @@
         <v>6.38977635782748</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="17">
+    <row r="14" spans="1:6" ht="17">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
@@ -9359,7 +9469,7 @@
         <v>8.9605734767025105</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="17">
+    <row r="15" spans="1:6" ht="17">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
@@ -9370,7 +9480,7 @@
         <v>15.5490767735666</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="17">
+    <row r="16" spans="1:6" ht="17">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
@@ -9598,10 +9708,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A731C64-54BE-DC4F-8717-C0C33E53277D}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="E3" sqref="E3:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9611,7 +9721,7 @@
     <col min="3" max="3" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="68">
+    <row r="1" spans="1:6" ht="68">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -9622,7 +9732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17">
+    <row r="2" spans="1:6" ht="17">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -9633,7 +9743,7 @@
         <v>10.075566750629701</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17">
+    <row r="3" spans="1:6" ht="17">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -9643,8 +9753,15 @@
       <c r="C3" s="2">
         <v>5.6980056980056997</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="17">
+      <c r="E3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="4">
+        <f>SLOPE(C2:C35,B2:B35)</f>
+        <v>-0.14397362756185009</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -9654,8 +9771,15 @@
       <c r="C4" s="2">
         <v>14.824797843665801</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="17">
+      <c r="E4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="4">
+        <f>INTERCEPT(C2:C35,B2:B35)</f>
+        <v>17.443420771244252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -9665,8 +9789,15 @@
       <c r="C5" s="2">
         <v>16.20029455081</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="17">
+      <c r="E5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="4">
+        <f>RSQ(C2:C35,B2:B35)</f>
+        <v>6.8653214217479303E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -9676,8 +9807,15 @@
       <c r="C6" s="2">
         <v>12.188044109112001</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="17">
+      <c r="E6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="4">
+        <f>STEYX(C2:C35,B2:B35)</f>
+        <v>4.3867727113166417</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -9688,7 +9826,7 @@
         <v>5.6657223796034</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17">
+    <row r="8" spans="1:6" ht="17">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -9699,7 +9837,7 @@
         <v>13.8888888888889</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17">
+    <row r="9" spans="1:6" ht="17">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -9710,7 +9848,7 @@
         <v>15.424164524421601</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="17">
+    <row r="10" spans="1:6" ht="17">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -9721,7 +9859,7 @@
         <v>5.1546391752577296</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="17">
+    <row r="11" spans="1:6" ht="17">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -9732,7 +9870,7 @@
         <v>8.3798882681564208</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17">
+    <row r="12" spans="1:6" ht="17">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
@@ -9743,7 +9881,7 @@
         <v>13.4048257372654</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17">
+    <row r="13" spans="1:6" ht="17">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
@@ -9754,7 +9892,7 @@
         <v>6.38977635782748</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="17">
+    <row r="14" spans="1:6" ht="17">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
@@ -9765,7 +9903,7 @@
         <v>8.9605734767025105</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="17">
+    <row r="15" spans="1:6" ht="17">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
@@ -9776,7 +9914,7 @@
         <v>15.5490767735666</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="17">
+    <row r="16" spans="1:6" ht="17">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
@@ -10004,10 +10142,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F350AD79-6915-F144-95E2-A3E04444FC81}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="E3" sqref="E3:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -10017,7 +10155,7 @@
     <col min="3" max="3" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="34">
+    <row r="1" spans="1:6" ht="34">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -10028,7 +10166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17">
+    <row r="2" spans="1:6" ht="17">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -10039,7 +10177,7 @@
         <v>10.075566750629701</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17">
+    <row r="3" spans="1:6" ht="17">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -10049,8 +10187,15 @@
       <c r="C3" s="2">
         <v>5.6980056980056997</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="17">
+      <c r="E3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="4">
+        <f>SLOPE(C2:C35,B2:B35)</f>
+        <v>-0.20921339040029266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -10060,8 +10205,15 @@
       <c r="C4" s="2">
         <v>14.824797843665801</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="17">
+      <c r="E4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="4">
+        <f>INTERCEPT(C2:C35,B2:B35)</f>
+        <v>12.417282561634407</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -10071,8 +10223,15 @@
       <c r="C5" s="2">
         <v>16.20029455081</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="17">
+      <c r="E5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="4">
+        <f>RSQ(C2:C35,B2:B35)</f>
+        <v>4.8273333897352021E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -10082,8 +10241,15 @@
       <c r="C6" s="2">
         <v>12.188044109112001</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="17">
+      <c r="E6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="4">
+        <f>STEYX(C2:C35,B2:B35)</f>
+        <v>4.5345964401760668</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -10094,7 +10260,7 @@
         <v>5.6657223796034</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17">
+    <row r="8" spans="1:6" ht="17">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -10105,7 +10271,7 @@
         <v>13.8888888888889</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17">
+    <row r="9" spans="1:6" ht="17">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -10116,7 +10282,7 @@
         <v>15.424164524421601</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="17">
+    <row r="10" spans="1:6" ht="17">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -10127,7 +10293,7 @@
         <v>5.1546391752577296</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="17">
+    <row r="11" spans="1:6" ht="17">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -10138,7 +10304,7 @@
         <v>8.3798882681564208</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17">
+    <row r="12" spans="1:6" ht="17">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
@@ -10149,7 +10315,7 @@
         <v>13.4048257372654</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17">
+    <row r="13" spans="1:6" ht="17">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
@@ -10160,7 +10326,7 @@
         <v>6.38977635782748</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="17">
+    <row r="14" spans="1:6" ht="17">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
@@ -10171,7 +10337,7 @@
         <v>8.9605734767025105</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="17">
+    <row r="15" spans="1:6" ht="17">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
@@ -10182,7 +10348,7 @@
         <v>15.5490767735666</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="17">
+    <row r="16" spans="1:6" ht="17">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
@@ -10410,10 +10576,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A0900E7-6F83-C247-92D1-53549CA98EDC}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -10423,7 +10589,7 @@
     <col min="3" max="3" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17">
+    <row r="1" spans="1:6" ht="17">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -10434,7 +10600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17">
+    <row r="2" spans="1:6" ht="17">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -10445,7 +10611,7 @@
         <v>10.075566750629701</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17">
+    <row r="3" spans="1:6" ht="17">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -10455,8 +10621,15 @@
       <c r="C3" s="2">
         <v>5.6980056980056997</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="17">
+      <c r="E3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="4">
+        <f>SLOPE(C2:C35,B2:B35)</f>
+        <v>-0.74679284551497127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -10466,8 +10639,15 @@
       <c r="C4" s="2">
         <v>14.824797843665801</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="17">
+      <c r="E4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="4">
+        <f>INTERCEPT(C2:C35,B2:B35)</f>
+        <v>64.191388219340382</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -10477,8 +10657,15 @@
       <c r="C5" s="2">
         <v>16.20029455081</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="17">
+      <c r="E5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="4">
+        <f>RSQ(C2:C35,B2:B35)</f>
+        <v>0.32869162790884981</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -10488,8 +10675,15 @@
       <c r="C6" s="2">
         <v>12.188044109112001</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="17">
+      <c r="E6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="4">
+        <f>STEYX(C2:C35,B2:B35)</f>
+        <v>3.7243497198703799</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -10500,7 +10694,7 @@
         <v>5.6657223796034</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17">
+    <row r="8" spans="1:6" ht="17">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -10511,7 +10705,7 @@
         <v>13.8888888888889</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17">
+    <row r="9" spans="1:6" ht="17">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -10522,7 +10716,7 @@
         <v>15.424164524421601</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="17">
+    <row r="10" spans="1:6" ht="17">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -10533,7 +10727,7 @@
         <v>5.1546391752577296</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="17">
+    <row r="11" spans="1:6" ht="17">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -10544,7 +10738,7 @@
         <v>8.3798882681564208</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17">
+    <row r="12" spans="1:6" ht="17">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
@@ -10555,7 +10749,7 @@
         <v>13.4048257372654</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17">
+    <row r="13" spans="1:6" ht="17">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
@@ -10566,7 +10760,7 @@
         <v>6.38977635782748</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="17">
+    <row r="14" spans="1:6" ht="17">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
@@ -10577,7 +10771,7 @@
         <v>8.9605734767025105</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="17">
+    <row r="15" spans="1:6" ht="17">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
@@ -10588,7 +10782,7 @@
         <v>15.5490767735666</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="17">
+    <row r="16" spans="1:6" ht="17">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>

--- a/SLR_Infant Mortality.xlsx
+++ b/SLR_Infant Mortality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sannyye/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B22ABAA-5058-114B-9A62-B37804B3D230}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE708EBF-FE74-5A4F-BE00-B2AF4AED3168}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6300" yWindow="460" windowWidth="23440" windowHeight="16120" activeTab="5" xr2:uid="{8ED7C4D8-DE18-DE4D-B916-807E6D394943}"/>
+    <workbookView xWindow="1180" yWindow="460" windowWidth="23440" windowHeight="16120" activeTab="5" xr2:uid="{8ED7C4D8-DE18-DE4D-B916-807E6D394943}"/>
   </bookViews>
   <sheets>
     <sheet name="teen birth rate" sheetId="1" r:id="rId1"/>
@@ -10579,7 +10579,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/SLR_Infant Mortality.xlsx
+++ b/SLR_Infant Mortality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sannyye/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE708EBF-FE74-5A4F-BE00-B2AF4AED3168}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B22ABAA-5058-114B-9A62-B37804B3D230}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="460" windowWidth="23440" windowHeight="16120" activeTab="5" xr2:uid="{8ED7C4D8-DE18-DE4D-B916-807E6D394943}"/>
+    <workbookView xWindow="6300" yWindow="460" windowWidth="23440" windowHeight="16120" activeTab="5" xr2:uid="{8ED7C4D8-DE18-DE4D-B916-807E6D394943}"/>
   </bookViews>
   <sheets>
     <sheet name="teen birth rate" sheetId="1" r:id="rId1"/>
@@ -10579,7 +10579,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
